--- a/202107_EXP2/mortality/mortality.xlsx
+++ b/202107_EXP2/mortality/mortality.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-cgigas-ploidy-temp\202107_EXP2\mortality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7715D662-3E66-457E-BAEE-F89A6930BF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1BB9F-0E7C-43E2-9D42-3692BDBFEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18720" activeTab="3" xr2:uid="{27293211-2FF9-46CB-AB8F-6662390C2386}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="4" xr2:uid="{27293211-2FF9-46CB-AB8F-6662390C2386}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="count" sheetId="3" r:id="rId2"/>
     <sheet name="percent" sheetId="1" r:id="rId3"/>
     <sheet name="plot" sheetId="4" r:id="rId4"/>
-    <sheet name="trt_list" sheetId="5" r:id="rId5"/>
+    <sheet name="plot2" sheetId="6" r:id="rId5"/>
+    <sheet name="trt_list" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -7530,9 +7538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E373B3CA-4F8B-4B74-8034-6521EB9A05BE}">
   <dimension ref="A1:G367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E349" sqref="E349"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11590,6 +11598,5528 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A80AA0-04A3-4F36-BEC4-4CD300C3A3D9}">
+  <dimension ref="A1:D367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F350" sqref="F350"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>-30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>100-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>-29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">100-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>-28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>-27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>-26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>-25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>-24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>-23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>-22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>-21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>-20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>-19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>-18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>-17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>-16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>-15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>-14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>-13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>-12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>-11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>-10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>-9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>-8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>-7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>-6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>-5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62">
+        <v>94.318181818181827</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>5.6818181818181728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>-30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>-29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>-28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>-27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>-26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">100-C67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>-25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>-24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>-23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>-22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>-21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>-20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>-19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>-18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>-17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>-16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>-15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>-14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>-13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>-12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>-11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>-10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>-9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>-8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>-7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>-6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>-5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>-4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>-3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>-2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>-1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>94.318181818181827</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>94.318181818181827</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181728</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>22</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>26</v>
+      </c>
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>29</v>
+      </c>
+      <c r="B122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>-30</v>
+      </c>
+      <c r="B124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>-29</v>
+      </c>
+      <c r="B125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>-28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>-27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>-26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C128">
+        <v>100</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>-25</v>
+      </c>
+      <c r="B129" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>-24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130">
+        <v>100</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>-23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">100-C131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>-22</v>
+      </c>
+      <c r="B132" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>-21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>-20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>-19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>-18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>-17</v>
+      </c>
+      <c r="B137" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>-16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>-15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>-14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>-13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>-12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>-11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C143">
+        <v>100</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>-10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>-9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>-8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>-7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>-6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>-5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>-4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>96</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>-3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>96</v>
+      </c>
+      <c r="C151">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>-2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>-1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>96</v>
+      </c>
+      <c r="C153">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>96</v>
+      </c>
+      <c r="C154">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>96</v>
+      </c>
+      <c r="C155">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>96</v>
+      </c>
+      <c r="C156">
+        <v>98.86363636363636</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>1.1363636363636402</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>96</v>
+      </c>
+      <c r="C158">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>96</v>
+      </c>
+      <c r="C159">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>96</v>
+      </c>
+      <c r="C161">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>96</v>
+      </c>
+      <c r="C162">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>96</v>
+      </c>
+      <c r="C164">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165">
+        <v>87.5</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166">
+        <v>87.5</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167">
+        <v>87.5</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>22</v>
+      </c>
+      <c r="B176" t="s">
+        <v>96</v>
+      </c>
+      <c r="C176">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>96</v>
+      </c>
+      <c r="C177">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>96</v>
+      </c>
+      <c r="C178">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>96</v>
+      </c>
+      <c r="C179">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>96</v>
+      </c>
+      <c r="C180">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>27</v>
+      </c>
+      <c r="B181" t="s">
+        <v>96</v>
+      </c>
+      <c r="C181">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>96</v>
+      </c>
+      <c r="C182">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>29</v>
+      </c>
+      <c r="B183" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>30</v>
+      </c>
+      <c r="B184" t="s">
+        <v>96</v>
+      </c>
+      <c r="C184">
+        <v>85.227272727272734</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>14.772727272727266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>-30</v>
+      </c>
+      <c r="B185" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185">
+        <v>100</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>-29</v>
+      </c>
+      <c r="B186" t="s">
+        <v>113</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>-28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>-27</v>
+      </c>
+      <c r="B188" t="s">
+        <v>113</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>-26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>113</v>
+      </c>
+      <c r="C189">
+        <v>100</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>-25</v>
+      </c>
+      <c r="B190" t="s">
+        <v>113</v>
+      </c>
+      <c r="C190">
+        <v>100</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>-24</v>
+      </c>
+      <c r="B191" t="s">
+        <v>113</v>
+      </c>
+      <c r="C191">
+        <v>100</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>-23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+      <c r="C192">
+        <v>100</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>-22</v>
+      </c>
+      <c r="B193" t="s">
+        <v>113</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>-21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>113</v>
+      </c>
+      <c r="C194">
+        <v>100</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>-20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195">
+        <v>100</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="3">100-C195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>-19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>-18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>113</v>
+      </c>
+      <c r="C197">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>-17</v>
+      </c>
+      <c r="B198" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>-16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>113</v>
+      </c>
+      <c r="C199">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>-15</v>
+      </c>
+      <c r="B200" t="s">
+        <v>113</v>
+      </c>
+      <c r="C200">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>-14</v>
+      </c>
+      <c r="B201" t="s">
+        <v>113</v>
+      </c>
+      <c r="C201">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>-13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>113</v>
+      </c>
+      <c r="C202">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>-12</v>
+      </c>
+      <c r="B203" t="s">
+        <v>113</v>
+      </c>
+      <c r="C203">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>-11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>-10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>113</v>
+      </c>
+      <c r="C205">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>-9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>113</v>
+      </c>
+      <c r="C206">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>-8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>113</v>
+      </c>
+      <c r="C207">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>-7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>113</v>
+      </c>
+      <c r="C208">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>-6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>113</v>
+      </c>
+      <c r="C209">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>-5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>113</v>
+      </c>
+      <c r="C210">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>-4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>113</v>
+      </c>
+      <c r="C211">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>-3</v>
+      </c>
+      <c r="B212" t="s">
+        <v>113</v>
+      </c>
+      <c r="C212">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>-2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>113</v>
+      </c>
+      <c r="C213">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>-1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>113</v>
+      </c>
+      <c r="C214">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>113</v>
+      </c>
+      <c r="C215">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>113</v>
+      </c>
+      <c r="C216">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>113</v>
+      </c>
+      <c r="C217">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>113</v>
+      </c>
+      <c r="C222">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>113</v>
+      </c>
+      <c r="C223">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>113</v>
+      </c>
+      <c r="C224">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>113</v>
+      </c>
+      <c r="C226">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>113</v>
+      </c>
+      <c r="C227">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>113</v>
+      </c>
+      <c r="C228">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>113</v>
+      </c>
+      <c r="C229">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>113</v>
+      </c>
+      <c r="C230">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>16</v>
+      </c>
+      <c r="B231" t="s">
+        <v>113</v>
+      </c>
+      <c r="C231">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>113</v>
+      </c>
+      <c r="C232">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>113</v>
+      </c>
+      <c r="C233">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>113</v>
+      </c>
+      <c r="C234">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>113</v>
+      </c>
+      <c r="C235">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>21</v>
+      </c>
+      <c r="B236" t="s">
+        <v>113</v>
+      </c>
+      <c r="C236">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>22</v>
+      </c>
+      <c r="B237" t="s">
+        <v>113</v>
+      </c>
+      <c r="C237">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
+        <v>113</v>
+      </c>
+      <c r="C238">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>24</v>
+      </c>
+      <c r="B239" t="s">
+        <v>113</v>
+      </c>
+      <c r="C239">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>25</v>
+      </c>
+      <c r="B240" t="s">
+        <v>113</v>
+      </c>
+      <c r="C240">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>26</v>
+      </c>
+      <c r="B241" t="s">
+        <v>113</v>
+      </c>
+      <c r="C241">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>27</v>
+      </c>
+      <c r="B242" t="s">
+        <v>113</v>
+      </c>
+      <c r="C242">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>28</v>
+      </c>
+      <c r="B243" t="s">
+        <v>113</v>
+      </c>
+      <c r="C243">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>29</v>
+      </c>
+      <c r="B244" t="s">
+        <v>113</v>
+      </c>
+      <c r="C244">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>30</v>
+      </c>
+      <c r="B245" t="s">
+        <v>113</v>
+      </c>
+      <c r="C245">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>-30</v>
+      </c>
+      <c r="B246" t="s">
+        <v>114</v>
+      </c>
+      <c r="C246">
+        <v>100</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>-29</v>
+      </c>
+      <c r="B247" t="s">
+        <v>114</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>-28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>114</v>
+      </c>
+      <c r="C248">
+        <v>100</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>-27</v>
+      </c>
+      <c r="B249" t="s">
+        <v>114</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>-26</v>
+      </c>
+      <c r="B250" t="s">
+        <v>114</v>
+      </c>
+      <c r="C250">
+        <v>100</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>-25</v>
+      </c>
+      <c r="B251" t="s">
+        <v>114</v>
+      </c>
+      <c r="C251">
+        <v>100</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>-24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>114</v>
+      </c>
+      <c r="C252">
+        <v>100</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>-23</v>
+      </c>
+      <c r="B253" t="s">
+        <v>114</v>
+      </c>
+      <c r="C253">
+        <v>100</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>-22</v>
+      </c>
+      <c r="B254" t="s">
+        <v>114</v>
+      </c>
+      <c r="C254">
+        <v>100</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>-21</v>
+      </c>
+      <c r="B255" t="s">
+        <v>114</v>
+      </c>
+      <c r="C255">
+        <v>100</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>-20</v>
+      </c>
+      <c r="B256" t="s">
+        <v>114</v>
+      </c>
+      <c r="C256">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>-19</v>
+      </c>
+      <c r="B257" t="s">
+        <v>114</v>
+      </c>
+      <c r="C257">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>-18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>114</v>
+      </c>
+      <c r="C258">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>-17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>114</v>
+      </c>
+      <c r="C259">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D322" si="4">100-C259</f>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>-16</v>
+      </c>
+      <c r="B260" t="s">
+        <v>114</v>
+      </c>
+      <c r="C260">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>-15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>114</v>
+      </c>
+      <c r="C261">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>-14</v>
+      </c>
+      <c r="B262" t="s">
+        <v>114</v>
+      </c>
+      <c r="C262">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>-13</v>
+      </c>
+      <c r="B263" t="s">
+        <v>114</v>
+      </c>
+      <c r="C263">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>-12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>114</v>
+      </c>
+      <c r="C264">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>-11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>114</v>
+      </c>
+      <c r="C265">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>-10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>114</v>
+      </c>
+      <c r="C266">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>-9</v>
+      </c>
+      <c r="B267" t="s">
+        <v>114</v>
+      </c>
+      <c r="C267">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>-8</v>
+      </c>
+      <c r="B268" t="s">
+        <v>114</v>
+      </c>
+      <c r="C268">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>-7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>114</v>
+      </c>
+      <c r="C269">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>-6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>114</v>
+      </c>
+      <c r="C270">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>-5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>114</v>
+      </c>
+      <c r="C271">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>-4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>114</v>
+      </c>
+      <c r="C272">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>-3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>114</v>
+      </c>
+      <c r="C273">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>-2</v>
+      </c>
+      <c r="B274" t="s">
+        <v>114</v>
+      </c>
+      <c r="C274">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>-1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>114</v>
+      </c>
+      <c r="C275">
+        <v>97.727272727272734</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>2.2727272727272663</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276" t="s">
+        <v>114</v>
+      </c>
+      <c r="C276">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>114</v>
+      </c>
+      <c r="C277">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>2</v>
+      </c>
+      <c r="B278" t="s">
+        <v>114</v>
+      </c>
+      <c r="C278">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545467</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>114</v>
+      </c>
+      <c r="C279">
+        <v>93.181818181818173</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>6.8181818181818272</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>114</v>
+      </c>
+      <c r="C280">
+        <v>92.045454545454547</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>7.9545454545454533</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>114</v>
+      </c>
+      <c r="C281">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>114</v>
+      </c>
+      <c r="C282">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>7</v>
+      </c>
+      <c r="B283" t="s">
+        <v>114</v>
+      </c>
+      <c r="C283">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>8</v>
+      </c>
+      <c r="B284" t="s">
+        <v>114</v>
+      </c>
+      <c r="C284">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>9</v>
+      </c>
+      <c r="B285" t="s">
+        <v>114</v>
+      </c>
+      <c r="C285">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>114</v>
+      </c>
+      <c r="C286">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>11</v>
+      </c>
+      <c r="B287" t="s">
+        <v>114</v>
+      </c>
+      <c r="C287">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>12</v>
+      </c>
+      <c r="B288" t="s">
+        <v>114</v>
+      </c>
+      <c r="C288">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>13</v>
+      </c>
+      <c r="B289" t="s">
+        <v>114</v>
+      </c>
+      <c r="C289">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>14</v>
+      </c>
+      <c r="B290" t="s">
+        <v>114</v>
+      </c>
+      <c r="C290">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>114</v>
+      </c>
+      <c r="C291">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>16</v>
+      </c>
+      <c r="B292" t="s">
+        <v>114</v>
+      </c>
+      <c r="C292">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>17</v>
+      </c>
+      <c r="B293" t="s">
+        <v>114</v>
+      </c>
+      <c r="C293">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>18</v>
+      </c>
+      <c r="B294" t="s">
+        <v>114</v>
+      </c>
+      <c r="C294">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>19</v>
+      </c>
+      <c r="B295" t="s">
+        <v>114</v>
+      </c>
+      <c r="C295">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>20</v>
+      </c>
+      <c r="B296" t="s">
+        <v>114</v>
+      </c>
+      <c r="C296">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>21</v>
+      </c>
+      <c r="B297" t="s">
+        <v>114</v>
+      </c>
+      <c r="C297">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>22</v>
+      </c>
+      <c r="B298" t="s">
+        <v>114</v>
+      </c>
+      <c r="C298">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>23</v>
+      </c>
+      <c r="B299" t="s">
+        <v>114</v>
+      </c>
+      <c r="C299">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>24</v>
+      </c>
+      <c r="B300" t="s">
+        <v>114</v>
+      </c>
+      <c r="C300">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>25</v>
+      </c>
+      <c r="B301" t="s">
+        <v>114</v>
+      </c>
+      <c r="C301">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>26</v>
+      </c>
+      <c r="B302" t="s">
+        <v>114</v>
+      </c>
+      <c r="C302">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>27</v>
+      </c>
+      <c r="B303" t="s">
+        <v>114</v>
+      </c>
+      <c r="C303">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>28</v>
+      </c>
+      <c r="B304" t="s">
+        <v>114</v>
+      </c>
+      <c r="C304">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>29</v>
+      </c>
+      <c r="B305" t="s">
+        <v>114</v>
+      </c>
+      <c r="C305">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>30</v>
+      </c>
+      <c r="B306" t="s">
+        <v>114</v>
+      </c>
+      <c r="C306">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>-30</v>
+      </c>
+      <c r="B307" t="s">
+        <v>111</v>
+      </c>
+      <c r="C307">
+        <v>100</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>-29</v>
+      </c>
+      <c r="B308" t="s">
+        <v>111</v>
+      </c>
+      <c r="C308">
+        <v>100</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>-28</v>
+      </c>
+      <c r="B309" t="s">
+        <v>111</v>
+      </c>
+      <c r="C309">
+        <v>100</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>-27</v>
+      </c>
+      <c r="B310" t="s">
+        <v>111</v>
+      </c>
+      <c r="C310">
+        <v>100</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>-26</v>
+      </c>
+      <c r="B311" t="s">
+        <v>111</v>
+      </c>
+      <c r="C311">
+        <v>100</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>-25</v>
+      </c>
+      <c r="B312" t="s">
+        <v>111</v>
+      </c>
+      <c r="C312">
+        <v>100</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>-24</v>
+      </c>
+      <c r="B313" t="s">
+        <v>111</v>
+      </c>
+      <c r="C313">
+        <v>100</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>-23</v>
+      </c>
+      <c r="B314" t="s">
+        <v>111</v>
+      </c>
+      <c r="C314">
+        <v>100</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>-22</v>
+      </c>
+      <c r="B315" t="s">
+        <v>111</v>
+      </c>
+      <c r="C315">
+        <v>100</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>-21</v>
+      </c>
+      <c r="B316" t="s">
+        <v>111</v>
+      </c>
+      <c r="C316">
+        <v>100</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>-20</v>
+      </c>
+      <c r="B317" t="s">
+        <v>111</v>
+      </c>
+      <c r="C317">
+        <v>100</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>-19</v>
+      </c>
+      <c r="B318" t="s">
+        <v>111</v>
+      </c>
+      <c r="C318">
+        <v>100</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>-18</v>
+      </c>
+      <c r="B319" t="s">
+        <v>111</v>
+      </c>
+      <c r="C319">
+        <v>100</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>-17</v>
+      </c>
+      <c r="B320" t="s">
+        <v>111</v>
+      </c>
+      <c r="C320">
+        <v>100</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>-16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>111</v>
+      </c>
+      <c r="C321">
+        <v>100</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>-15</v>
+      </c>
+      <c r="B322" t="s">
+        <v>111</v>
+      </c>
+      <c r="C322">
+        <v>100</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>-14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>111</v>
+      </c>
+      <c r="C323">
+        <v>100</v>
+      </c>
+      <c r="D323">
+        <f t="shared" ref="D323:D367" si="5">100-C323</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>-13</v>
+      </c>
+      <c r="B324" t="s">
+        <v>111</v>
+      </c>
+      <c r="C324">
+        <v>100</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>-12</v>
+      </c>
+      <c r="B325" t="s">
+        <v>111</v>
+      </c>
+      <c r="C325">
+        <v>100</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>-11</v>
+      </c>
+      <c r="B326" t="s">
+        <v>111</v>
+      </c>
+      <c r="C326">
+        <v>100</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>-10</v>
+      </c>
+      <c r="B327" t="s">
+        <v>111</v>
+      </c>
+      <c r="C327">
+        <v>100</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>-9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>111</v>
+      </c>
+      <c r="C328">
+        <v>100</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>-8</v>
+      </c>
+      <c r="B329" t="s">
+        <v>111</v>
+      </c>
+      <c r="C329">
+        <v>100</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>-7</v>
+      </c>
+      <c r="B330" t="s">
+        <v>111</v>
+      </c>
+      <c r="C330">
+        <v>100</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>-6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C331">
+        <v>100</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>-5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>111</v>
+      </c>
+      <c r="C332">
+        <v>100</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>-4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>111</v>
+      </c>
+      <c r="C333">
+        <v>100</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>-3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>111</v>
+      </c>
+      <c r="C334">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>-2</v>
+      </c>
+      <c r="B335" t="s">
+        <v>111</v>
+      </c>
+      <c r="C335">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>-1</v>
+      </c>
+      <c r="B336" t="s">
+        <v>111</v>
+      </c>
+      <c r="C336">
+        <v>96.590909090909093</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>3.4090909090909065</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337" t="s">
+        <v>111</v>
+      </c>
+      <c r="C337">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>9.0909090909090935</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" t="s">
+        <v>111</v>
+      </c>
+      <c r="C338">
+        <v>89.772727272727266</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>10.227272727272734</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339" t="s">
+        <v>111</v>
+      </c>
+      <c r="C339">
+        <v>89.772727272727266</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>10.227272727272734</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A340">
+        <v>3</v>
+      </c>
+      <c r="B340" t="s">
+        <v>111</v>
+      </c>
+      <c r="C340">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>27.272727272727266</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>111</v>
+      </c>
+      <c r="C341">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>27.272727272727266</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>111</v>
+      </c>
+      <c r="C342">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>27.272727272727266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>111</v>
+      </c>
+      <c r="C343">
+        <v>72.727272727272734</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>27.272727272727266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>7</v>
+      </c>
+      <c r="B344" t="s">
+        <v>111</v>
+      </c>
+      <c r="C344">
+        <v>64.772727272727266</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>35.227272727272734</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>8</v>
+      </c>
+      <c r="B345" t="s">
+        <v>111</v>
+      </c>
+      <c r="C345">
+        <v>64.772727272727266</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>35.227272727272734</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A346">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>111</v>
+      </c>
+      <c r="C346">
+        <v>64.772727272727266</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>35.227272727272734</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A347">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>111</v>
+      </c>
+      <c r="C347">
+        <v>64.772727272727266</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>35.227272727272734</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A348">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>111</v>
+      </c>
+      <c r="C348">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A349">
+        <v>12</v>
+      </c>
+      <c r="B349" t="s">
+        <v>111</v>
+      </c>
+      <c r="C349">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A350">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
+        <v>111</v>
+      </c>
+      <c r="C350">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A351">
+        <v>14</v>
+      </c>
+      <c r="B351" t="s">
+        <v>111</v>
+      </c>
+      <c r="C351">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A352">
+        <v>15</v>
+      </c>
+      <c r="B352" t="s">
+        <v>111</v>
+      </c>
+      <c r="C352">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A353">
+        <v>16</v>
+      </c>
+      <c r="B353" t="s">
+        <v>111</v>
+      </c>
+      <c r="C353">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A354">
+        <v>17</v>
+      </c>
+      <c r="B354" t="s">
+        <v>111</v>
+      </c>
+      <c r="C354">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A355">
+        <v>18</v>
+      </c>
+      <c r="B355" t="s">
+        <v>111</v>
+      </c>
+      <c r="C355">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A356">
+        <v>19</v>
+      </c>
+      <c r="B356" t="s">
+        <v>111</v>
+      </c>
+      <c r="C356">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A357">
+        <v>20</v>
+      </c>
+      <c r="B357" t="s">
+        <v>111</v>
+      </c>
+      <c r="C357">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A358">
+        <v>21</v>
+      </c>
+      <c r="B358" t="s">
+        <v>111</v>
+      </c>
+      <c r="C358">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A359">
+        <v>22</v>
+      </c>
+      <c r="B359" t="s">
+        <v>111</v>
+      </c>
+      <c r="C359">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360">
+        <v>23</v>
+      </c>
+      <c r="B360" t="s">
+        <v>111</v>
+      </c>
+      <c r="C360">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361">
+        <v>24</v>
+      </c>
+      <c r="B361" t="s">
+        <v>111</v>
+      </c>
+      <c r="C361">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362">
+        <v>25</v>
+      </c>
+      <c r="B362" t="s">
+        <v>111</v>
+      </c>
+      <c r="C362">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363">
+        <v>26</v>
+      </c>
+      <c r="B363" t="s">
+        <v>111</v>
+      </c>
+      <c r="C363">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364">
+        <v>27</v>
+      </c>
+      <c r="B364" t="s">
+        <v>111</v>
+      </c>
+      <c r="C364">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365">
+        <v>28</v>
+      </c>
+      <c r="B365" t="s">
+        <v>111</v>
+      </c>
+      <c r="C365">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366">
+        <v>29</v>
+      </c>
+      <c r="B366" t="s">
+        <v>111</v>
+      </c>
+      <c r="C366">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367">
+        <v>30</v>
+      </c>
+      <c r="B367" t="s">
+        <v>111</v>
+      </c>
+      <c r="C367">
+        <v>63.636363636363633</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>36.363636363636367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691AC753-3960-472A-92BF-271FCA3A3FB3}">
   <dimension ref="A1:A7"/>
   <sheetViews>

--- a/202107_EXP2/mortality/mortality.xlsx
+++ b/202107_EXP2/mortality/mortality.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1BB9F-0E7C-43E2-9D42-3692BDBFEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690BD0B8-ADFE-4D43-8604-BC31DF565FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="4" xr2:uid="{27293211-2FF9-46CB-AB8F-6662390C2386}"/>
+    <workbookView xWindow="33206" yWindow="206" windowWidth="21643" windowHeight="17803" activeTab="5" xr2:uid="{27293211-2FF9-46CB-AB8F-6662390C2386}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
-    <sheet name="count" sheetId="3" r:id="rId2"/>
-    <sheet name="percent" sheetId="1" r:id="rId3"/>
-    <sheet name="plot" sheetId="4" r:id="rId4"/>
-    <sheet name="plot2" sheetId="6" r:id="rId5"/>
+    <sheet name="mortality_list" sheetId="2" r:id="rId1"/>
+    <sheet name="mortality_count" sheetId="3" r:id="rId2"/>
+    <sheet name="mortality_percent" sheetId="1" r:id="rId3"/>
+    <sheet name="plot_surival" sheetId="4" r:id="rId4"/>
+    <sheet name="plot_mortality" sheetId="6" r:id="rId5"/>
     <sheet name="trt_list" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -410,12 +410,51 @@
   <si>
     <t>survival</t>
   </si>
+  <si>
+    <t>trt_color</t>
+  </si>
+  <si>
+    <t>royalblue1</t>
+  </si>
+  <si>
+    <t>trt_line</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>dotted</t>
+  </si>
+  <si>
+    <t>twodash</t>
+  </si>
+  <si>
+    <t>orangered1</t>
+  </si>
+  <si>
+    <t>darkorange</t>
+  </si>
+  <si>
+    <t>diploid</t>
+  </si>
+  <si>
+    <t>triploid</t>
+  </si>
+  <si>
+    <t>deepskyblue3</t>
+  </si>
+  <si>
+    <t>orangered4</t>
+  </si>
+  <si>
+    <t>royalblue4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +479,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +858,7 @@
   <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7539,8 +7584,8 @@
   <dimension ref="A1:G367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G397" sqref="G397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11599,5517 +11644,6618 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A80AA0-04A3-4F36-BEC4-4CD300C3A3D9}">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F350" sqref="F350"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B185" sqref="B185:B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>-30</v>
       </c>
       <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
       <c r="D2">
-        <f>100-C2</f>
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <f>100-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>-29</v>
       </c>
       <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">100-C3</f>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">100-D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>-28</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>-27</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
       <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>-26</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
       <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>-25</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
       <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>-24</v>
       </c>
       <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
       <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>-23</v>
       </c>
       <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
       <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>-22</v>
       </c>
       <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
       <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>-21</v>
       </c>
       <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
       <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>-20</v>
       </c>
       <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
       <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>-19</v>
       </c>
       <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
       <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>-18</v>
       </c>
       <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
       <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>-17</v>
       </c>
       <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
       <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>-16</v>
       </c>
       <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
       <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>-15</v>
       </c>
       <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
       <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>-14</v>
       </c>
       <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
       <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>-13</v>
       </c>
       <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
       <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>-12</v>
       </c>
       <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
       <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>-11</v>
       </c>
       <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
         <v>93</v>
       </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
       <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>-10</v>
       </c>
       <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>93</v>
       </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
       <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>-9</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
         <v>93</v>
       </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
       <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>-8</v>
       </c>
       <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
       <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>-7</v>
       </c>
       <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
       <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>-6</v>
       </c>
       <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
         <v>93</v>
       </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
       <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>-5</v>
       </c>
       <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
       <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>-4</v>
       </c>
       <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
       <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>-3</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
       <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>-2</v>
       </c>
       <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
       <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>-1</v>
       </c>
       <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
       </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
       <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
       <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
       <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
       <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
       <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
       <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
       <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
       <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
         <v>93</v>
       </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
       <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="C40">
-        <v>100</v>
-      </c>
       <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
         <v>93</v>
       </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
       <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>10</v>
       </c>
       <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
       <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
         <v>93</v>
       </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
       <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="C44">
-        <v>100</v>
-      </c>
       <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>13</v>
       </c>
       <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-      <c r="C45">
-        <v>100</v>
-      </c>
       <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>14</v>
       </c>
       <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
         <v>93</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>97.727272727272734</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>15</v>
       </c>
       <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>97.727272727272734</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>97.727272727272734</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>17</v>
       </c>
       <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
         <v>93</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>97.727272727272734</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>18</v>
       </c>
       <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>97.727272727272734</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>19</v>
       </c>
       <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
         <v>93</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>97.727272727272734</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>20</v>
       </c>
       <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>97.727272727272734</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>21</v>
       </c>
       <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
         <v>93</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>97.727272727272734</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>22</v>
       </c>
       <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
         <v>93</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>97.727272727272734</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>23</v>
       </c>
       <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
         <v>93</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>97.727272727272734</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>24</v>
       </c>
       <c r="B56" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s">
         <v>93</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>97.727272727272734</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>25</v>
       </c>
       <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
         <v>93</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>97.727272727272734</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>26</v>
       </c>
       <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>97.727272727272734</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>27</v>
       </c>
       <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
         <v>93</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>97.727272727272734</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>28</v>
       </c>
       <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
         <v>93</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>97.727272727272734</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>29</v>
       </c>
       <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
         <v>93</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>97.727272727272734</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>30</v>
       </c>
       <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
         <v>93</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>94.318181818181827</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>5.6818181818181728</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>-30</v>
       </c>
       <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
         <v>101</v>
       </c>
-      <c r="C63">
-        <v>100</v>
-      </c>
       <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>-29</v>
       </c>
       <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" t="s">
         <v>101</v>
       </c>
-      <c r="C64">
-        <v>100</v>
-      </c>
       <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>-28</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
         <v>101</v>
       </c>
-      <c r="C65">
-        <v>100</v>
-      </c>
       <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>-27</v>
       </c>
       <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
         <v>101</v>
       </c>
-      <c r="C66">
-        <v>100</v>
-      </c>
       <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>-26</v>
       </c>
       <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
         <v>101</v>
       </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">100-C67</f>
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">100-D67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>-25</v>
       </c>
       <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
         <v>101</v>
       </c>
-      <c r="C68">
-        <v>100</v>
-      </c>
       <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>-24</v>
       </c>
       <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
         <v>101</v>
       </c>
-      <c r="C69">
-        <v>100</v>
-      </c>
       <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>-23</v>
       </c>
       <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
         <v>101</v>
       </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
       <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>-22</v>
       </c>
       <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
         <v>101</v>
       </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
       <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>-21</v>
       </c>
       <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
         <v>101</v>
       </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
       <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>-20</v>
       </c>
       <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
         <v>101</v>
       </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
       <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>-19</v>
       </c>
       <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
         <v>101</v>
       </c>
-      <c r="C74">
-        <v>100</v>
-      </c>
       <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>-18</v>
       </c>
       <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
       <c r="D75">
+        <v>100</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>-17</v>
       </c>
       <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
         <v>101</v>
       </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
       <c r="D76">
+        <v>100</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>-16</v>
       </c>
       <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
         <v>101</v>
       </c>
-      <c r="C77">
-        <v>100</v>
-      </c>
       <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>-15</v>
       </c>
       <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" t="s">
         <v>101</v>
       </c>
-      <c r="C78">
-        <v>100</v>
-      </c>
       <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>-14</v>
       </c>
       <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" t="s">
         <v>101</v>
       </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
       <c r="D79">
+        <v>100</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>-13</v>
       </c>
       <c r="B80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
         <v>101</v>
       </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
       <c r="D80">
+        <v>100</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>-12</v>
       </c>
       <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" t="s">
         <v>101</v>
       </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
       <c r="D81">
+        <v>100</v>
+      </c>
+      <c r="E81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>-11</v>
       </c>
       <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" t="s">
         <v>101</v>
       </c>
-      <c r="C82">
-        <v>100</v>
-      </c>
       <c r="D82">
+        <v>100</v>
+      </c>
+      <c r="E82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>-10</v>
       </c>
       <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" t="s">
         <v>101</v>
       </c>
-      <c r="C83">
-        <v>100</v>
-      </c>
       <c r="D83">
+        <v>100</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>-9</v>
       </c>
       <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
         <v>101</v>
       </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
       <c r="D84">
+        <v>100</v>
+      </c>
+      <c r="E84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>-8</v>
       </c>
       <c r="B85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" t="s">
         <v>101</v>
       </c>
-      <c r="C85">
-        <v>100</v>
-      </c>
       <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>-7</v>
       </c>
       <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" t="s">
         <v>101</v>
       </c>
-      <c r="C86">
-        <v>100</v>
-      </c>
       <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>-6</v>
       </c>
       <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
         <v>101</v>
       </c>
-      <c r="C87">
-        <v>100</v>
-      </c>
       <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>-5</v>
       </c>
       <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
         <v>101</v>
       </c>
-      <c r="C88">
-        <v>100</v>
-      </c>
       <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>-4</v>
       </c>
       <c r="B89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" t="s">
         <v>101</v>
       </c>
-      <c r="C89">
-        <v>100</v>
-      </c>
       <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>-3</v>
       </c>
       <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" t="s">
         <v>101</v>
       </c>
-      <c r="C90">
-        <v>100</v>
-      </c>
       <c r="D90">
+        <v>100</v>
+      </c>
+      <c r="E90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>-2</v>
       </c>
       <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
         <v>101</v>
       </c>
-      <c r="C91">
-        <v>100</v>
-      </c>
       <c r="D91">
+        <v>100</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>-1</v>
       </c>
       <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
         <v>101</v>
       </c>
-      <c r="C92">
-        <v>100</v>
-      </c>
       <c r="D92">
+        <v>100</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>0</v>
       </c>
       <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" t="s">
         <v>101</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>97.727272727272734</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <f t="shared" si="1"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
         <v>101</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>97.727272727272734</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <f t="shared" si="1"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>94.318181818181827</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <f t="shared" si="1"/>
         <v>5.6818181818181728</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3</v>
       </c>
       <c r="B96" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" t="s">
         <v>101</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>94.318181818181827</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <f t="shared" si="1"/>
         <v>5.6818181818181728</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" t="s">
         <v>101</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>90.909090909090907</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>5</v>
       </c>
       <c r="B98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" t="s">
         <v>101</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>90.909090909090907</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>6</v>
       </c>
       <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" t="s">
         <v>101</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>90.909090909090907</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>7</v>
       </c>
       <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
         <v>101</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>90.909090909090907</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>8</v>
       </c>
       <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" t="s">
         <v>101</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>90.909090909090907</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>9</v>
       </c>
       <c r="B102" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>90.909090909090907</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>10</v>
       </c>
       <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
         <v>101</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>90.909090909090907</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>11</v>
       </c>
       <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" t="s">
         <v>101</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>90.909090909090907</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>12</v>
       </c>
       <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
         <v>101</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>90.909090909090907</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>13</v>
       </c>
       <c r="B106" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" t="s">
         <v>101</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>90.909090909090907</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>14</v>
       </c>
       <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" t="s">
         <v>101</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>90.909090909090907</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>15</v>
       </c>
       <c r="B108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" t="s">
         <v>101</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>90.909090909090907</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>16</v>
       </c>
       <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" t="s">
         <v>101</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>90.909090909090907</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>17</v>
       </c>
       <c r="B110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C110" t="s">
         <v>101</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>90.909090909090907</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>18</v>
       </c>
       <c r="B111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" t="s">
         <v>101</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>90.909090909090907</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>19</v>
       </c>
       <c r="B112" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" t="s">
         <v>101</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>90.909090909090907</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>20</v>
       </c>
       <c r="B113" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" t="s">
         <v>101</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>90.909090909090907</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>21</v>
       </c>
       <c r="B114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" t="s">
         <v>101</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>90.909090909090907</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>22</v>
       </c>
       <c r="B115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" t="s">
         <v>101</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>90.909090909090907</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>23</v>
       </c>
       <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" t="s">
         <v>101</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>90.909090909090907</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>24</v>
       </c>
       <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" t="s">
         <v>101</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>90.909090909090907</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>25</v>
       </c>
       <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
         <v>101</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>90.909090909090907</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>26</v>
       </c>
       <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
         <v>101</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>90.909090909090907</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>27</v>
       </c>
       <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" t="s">
         <v>101</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>90.909090909090907</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>28</v>
       </c>
       <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
         <v>101</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>90.909090909090907</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>29</v>
       </c>
       <c r="B122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
         <v>101</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>90.909090909090907</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>30</v>
       </c>
       <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" t="s">
         <v>101</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>90.909090909090907</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <f t="shared" si="1"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>-30</v>
       </c>
       <c r="B124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
         <v>96</v>
       </c>
-      <c r="C124">
-        <v>100</v>
-      </c>
       <c r="D124">
+        <v>100</v>
+      </c>
+      <c r="E124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>-29</v>
       </c>
       <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
         <v>96</v>
       </c>
-      <c r="C125">
-        <v>100</v>
-      </c>
       <c r="D125">
+        <v>100</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>-28</v>
       </c>
       <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
         <v>96</v>
       </c>
-      <c r="C126">
-        <v>100</v>
-      </c>
       <c r="D126">
+        <v>100</v>
+      </c>
+      <c r="E126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>-27</v>
       </c>
       <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127" t="s">
         <v>96</v>
       </c>
-      <c r="C127">
-        <v>100</v>
-      </c>
       <c r="D127">
+        <v>100</v>
+      </c>
+      <c r="E127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>-26</v>
       </c>
       <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
         <v>96</v>
       </c>
-      <c r="C128">
-        <v>100</v>
-      </c>
       <c r="D128">
+        <v>100</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>-25</v>
       </c>
       <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
         <v>96</v>
       </c>
-      <c r="C129">
-        <v>100</v>
-      </c>
       <c r="D129">
+        <v>100</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>-24</v>
       </c>
       <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
         <v>96</v>
       </c>
-      <c r="C130">
-        <v>100</v>
-      </c>
       <c r="D130">
+        <v>100</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>-23</v>
       </c>
       <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
         <v>96</v>
       </c>
-      <c r="C131">
-        <v>100</v>
-      </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">100-C131</f>
+        <v>100</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">100-D131</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>-22</v>
       </c>
       <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
         <v>96</v>
       </c>
-      <c r="C132">
-        <v>100</v>
-      </c>
       <c r="D132">
+        <v>100</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>-21</v>
       </c>
       <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
         <v>96</v>
       </c>
-      <c r="C133">
-        <v>100</v>
-      </c>
       <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>-20</v>
       </c>
       <c r="B134" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
         <v>96</v>
       </c>
-      <c r="C134">
-        <v>100</v>
-      </c>
       <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>-19</v>
       </c>
       <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
         <v>96</v>
       </c>
-      <c r="C135">
-        <v>100</v>
-      </c>
       <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>-18</v>
       </c>
       <c r="B136" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
         <v>96</v>
       </c>
-      <c r="C136">
-        <v>100</v>
-      </c>
       <c r="D136">
+        <v>100</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>-17</v>
       </c>
       <c r="B137" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" t="s">
         <v>96</v>
       </c>
-      <c r="C137">
-        <v>100</v>
-      </c>
       <c r="D137">
+        <v>100</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>-16</v>
       </c>
       <c r="B138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
         <v>96</v>
       </c>
-      <c r="C138">
-        <v>100</v>
-      </c>
       <c r="D138">
+        <v>100</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>-15</v>
       </c>
       <c r="B139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" t="s">
         <v>96</v>
       </c>
-      <c r="C139">
-        <v>100</v>
-      </c>
       <c r="D139">
+        <v>100</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>-14</v>
       </c>
       <c r="B140" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" t="s">
         <v>96</v>
       </c>
-      <c r="C140">
-        <v>100</v>
-      </c>
       <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>-13</v>
       </c>
       <c r="B141" t="s">
+        <v>132</v>
+      </c>
+      <c r="C141" t="s">
         <v>96</v>
       </c>
-      <c r="C141">
-        <v>100</v>
-      </c>
       <c r="D141">
+        <v>100</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>-12</v>
       </c>
       <c r="B142" t="s">
+        <v>132</v>
+      </c>
+      <c r="C142" t="s">
         <v>96</v>
       </c>
-      <c r="C142">
-        <v>100</v>
-      </c>
       <c r="D142">
+        <v>100</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>-11</v>
       </c>
       <c r="B143" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143" t="s">
         <v>96</v>
       </c>
-      <c r="C143">
-        <v>100</v>
-      </c>
       <c r="D143">
+        <v>100</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>-10</v>
       </c>
       <c r="B144" t="s">
+        <v>132</v>
+      </c>
+      <c r="C144" t="s">
         <v>96</v>
       </c>
-      <c r="C144">
-        <v>100</v>
-      </c>
       <c r="D144">
+        <v>100</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>-9</v>
       </c>
       <c r="B145" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" t="s">
         <v>96</v>
       </c>
-      <c r="C145">
-        <v>100</v>
-      </c>
       <c r="D145">
+        <v>100</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>-8</v>
       </c>
       <c r="B146" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" t="s">
         <v>96</v>
       </c>
-      <c r="C146">
-        <v>100</v>
-      </c>
       <c r="D146">
+        <v>100</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>-7</v>
       </c>
       <c r="B147" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" t="s">
         <v>96</v>
       </c>
-      <c r="C147">
-        <v>100</v>
-      </c>
       <c r="D147">
+        <v>100</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>-6</v>
       </c>
       <c r="B148" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" t="s">
         <v>96</v>
       </c>
-      <c r="C148">
-        <v>100</v>
-      </c>
       <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>-5</v>
       </c>
       <c r="B149" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" t="s">
         <v>96</v>
       </c>
-      <c r="C149">
-        <v>100</v>
-      </c>
       <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>-4</v>
       </c>
       <c r="B150" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" t="s">
         <v>96</v>
       </c>
-      <c r="C150">
-        <v>100</v>
-      </c>
       <c r="D150">
+        <v>100</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>-3</v>
       </c>
       <c r="B151" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" t="s">
         <v>96</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>98.86363636363636</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>-2</v>
       </c>
       <c r="B152" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" t="s">
         <v>96</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>98.86363636363636</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>-1</v>
       </c>
       <c r="B153" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" t="s">
         <v>96</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>98.86363636363636</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>0</v>
       </c>
       <c r="B154" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" t="s">
         <v>96</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>98.86363636363636</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" t="s">
         <v>96</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>98.86363636363636</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>2</v>
       </c>
       <c r="B156" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" t="s">
         <v>96</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>98.86363636363636</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <f t="shared" si="2"/>
         <v>1.1363636363636402</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>3</v>
       </c>
       <c r="B157" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" t="s">
         <v>96</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>93.181818181818173</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <f t="shared" si="2"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>4</v>
       </c>
       <c r="B158" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" t="s">
         <v>96</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>93.181818181818173</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <f t="shared" si="2"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>5</v>
       </c>
       <c r="B159" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" t="s">
         <v>96</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>93.181818181818173</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <f t="shared" si="2"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>6</v>
       </c>
       <c r="B160" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" t="s">
         <v>96</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>93.181818181818173</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <f t="shared" si="2"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>7</v>
       </c>
       <c r="B161" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" t="s">
         <v>96</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>90.909090909090907</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <f t="shared" si="2"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>8</v>
       </c>
       <c r="B162" t="s">
+        <v>132</v>
+      </c>
+      <c r="C162" t="s">
         <v>96</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>90.909090909090907</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <f t="shared" si="2"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>9</v>
       </c>
       <c r="B163" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" t="s">
         <v>96</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>90.909090909090907</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <f t="shared" si="2"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>10</v>
       </c>
       <c r="B164" t="s">
+        <v>132</v>
+      </c>
+      <c r="C164" t="s">
         <v>96</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>90.909090909090907</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <f t="shared" si="2"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>11</v>
       </c>
       <c r="B165" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" t="s">
         <v>96</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>87.5</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>12</v>
       </c>
       <c r="B166" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" t="s">
         <v>96</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>87.5</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>13</v>
       </c>
       <c r="B167" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" t="s">
         <v>96</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>87.5</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>14</v>
       </c>
       <c r="B168" t="s">
+        <v>132</v>
+      </c>
+      <c r="C168" t="s">
         <v>96</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>86.36363636363636</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>15</v>
       </c>
       <c r="B169" t="s">
+        <v>132</v>
+      </c>
+      <c r="C169" t="s">
         <v>96</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>86.36363636363636</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>16</v>
       </c>
       <c r="B170" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" t="s">
         <v>96</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>86.36363636363636</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>17</v>
       </c>
       <c r="B171" t="s">
+        <v>132</v>
+      </c>
+      <c r="C171" t="s">
         <v>96</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>86.36363636363636</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>18</v>
       </c>
       <c r="B172" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" t="s">
         <v>96</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>86.36363636363636</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>19</v>
       </c>
       <c r="B173" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" t="s">
         <v>96</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>86.36363636363636</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>20</v>
       </c>
       <c r="B174" t="s">
+        <v>132</v>
+      </c>
+      <c r="C174" t="s">
         <v>96</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>86.36363636363636</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>21</v>
       </c>
       <c r="B175" t="s">
+        <v>132</v>
+      </c>
+      <c r="C175" t="s">
         <v>96</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>86.36363636363636</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>22</v>
       </c>
       <c r="B176" t="s">
+        <v>132</v>
+      </c>
+      <c r="C176" t="s">
         <v>96</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>86.36363636363636</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>23</v>
       </c>
       <c r="B177" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" t="s">
         <v>96</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>86.36363636363636</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>24</v>
       </c>
       <c r="B178" t="s">
+        <v>132</v>
+      </c>
+      <c r="C178" t="s">
         <v>96</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>86.36363636363636</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>25</v>
       </c>
       <c r="B179" t="s">
+        <v>132</v>
+      </c>
+      <c r="C179" t="s">
         <v>96</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>86.36363636363636</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>26</v>
       </c>
       <c r="B180" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" t="s">
         <v>96</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>86.36363636363636</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>27</v>
       </c>
       <c r="B181" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" t="s">
         <v>96</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>86.36363636363636</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>28</v>
       </c>
       <c r="B182" t="s">
+        <v>132</v>
+      </c>
+      <c r="C182" t="s">
         <v>96</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>86.36363636363636</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>29</v>
       </c>
       <c r="B183" t="s">
+        <v>132</v>
+      </c>
+      <c r="C183" t="s">
         <v>96</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>86.36363636363636</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <f t="shared" si="2"/>
         <v>13.63636363636364</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>30</v>
       </c>
       <c r="B184" t="s">
+        <v>132</v>
+      </c>
+      <c r="C184" t="s">
         <v>96</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>85.227272727272734</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <f t="shared" si="2"/>
         <v>14.772727272727266</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>-30</v>
       </c>
       <c r="B185" t="s">
+        <v>133</v>
+      </c>
+      <c r="C185" t="s">
         <v>113</v>
       </c>
-      <c r="C185">
-        <v>100</v>
-      </c>
       <c r="D185">
+        <v>100</v>
+      </c>
+      <c r="E185">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>-29</v>
       </c>
       <c r="B186" t="s">
+        <v>133</v>
+      </c>
+      <c r="C186" t="s">
         <v>113</v>
       </c>
-      <c r="C186">
-        <v>100</v>
-      </c>
       <c r="D186">
+        <v>100</v>
+      </c>
+      <c r="E186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>-28</v>
       </c>
       <c r="B187" t="s">
+        <v>133</v>
+      </c>
+      <c r="C187" t="s">
         <v>113</v>
       </c>
-      <c r="C187">
-        <v>100</v>
-      </c>
       <c r="D187">
+        <v>100</v>
+      </c>
+      <c r="E187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>-27</v>
       </c>
       <c r="B188" t="s">
+        <v>133</v>
+      </c>
+      <c r="C188" t="s">
         <v>113</v>
       </c>
-      <c r="C188">
-        <v>100</v>
-      </c>
       <c r="D188">
+        <v>100</v>
+      </c>
+      <c r="E188">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>-26</v>
       </c>
       <c r="B189" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" t="s">
         <v>113</v>
       </c>
-      <c r="C189">
-        <v>100</v>
-      </c>
       <c r="D189">
+        <v>100</v>
+      </c>
+      <c r="E189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>-25</v>
       </c>
       <c r="B190" t="s">
+        <v>133</v>
+      </c>
+      <c r="C190" t="s">
         <v>113</v>
       </c>
-      <c r="C190">
-        <v>100</v>
-      </c>
       <c r="D190">
+        <v>100</v>
+      </c>
+      <c r="E190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>-24</v>
       </c>
       <c r="B191" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" t="s">
         <v>113</v>
       </c>
-      <c r="C191">
-        <v>100</v>
-      </c>
       <c r="D191">
+        <v>100</v>
+      </c>
+      <c r="E191">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>-23</v>
       </c>
       <c r="B192" t="s">
+        <v>133</v>
+      </c>
+      <c r="C192" t="s">
         <v>113</v>
       </c>
-      <c r="C192">
-        <v>100</v>
-      </c>
       <c r="D192">
+        <v>100</v>
+      </c>
+      <c r="E192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>-22</v>
       </c>
       <c r="B193" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" t="s">
         <v>113</v>
       </c>
-      <c r="C193">
-        <v>100</v>
-      </c>
       <c r="D193">
+        <v>100</v>
+      </c>
+      <c r="E193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>-21</v>
       </c>
       <c r="B194" t="s">
+        <v>133</v>
+      </c>
+      <c r="C194" t="s">
         <v>113</v>
       </c>
-      <c r="C194">
-        <v>100</v>
-      </c>
       <c r="D194">
+        <v>100</v>
+      </c>
+      <c r="E194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>-20</v>
       </c>
       <c r="B195" t="s">
+        <v>133</v>
+      </c>
+      <c r="C195" t="s">
         <v>113</v>
       </c>
-      <c r="C195">
-        <v>100</v>
-      </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="3">100-C195</f>
+        <v>100</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="3">100-D195</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>-19</v>
       </c>
       <c r="B196" t="s">
+        <v>133</v>
+      </c>
+      <c r="C196" t="s">
         <v>113</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>96.590909090909093</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>-18</v>
       </c>
       <c r="B197" t="s">
+        <v>133</v>
+      </c>
+      <c r="C197" t="s">
         <v>113</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>96.590909090909093</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>-17</v>
       </c>
       <c r="B198" t="s">
+        <v>133</v>
+      </c>
+      <c r="C198" t="s">
         <v>113</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>96.590909090909093</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>-16</v>
       </c>
       <c r="B199" t="s">
+        <v>133</v>
+      </c>
+      <c r="C199" t="s">
         <v>113</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>96.590909090909093</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>-15</v>
       </c>
       <c r="B200" t="s">
+        <v>133</v>
+      </c>
+      <c r="C200" t="s">
         <v>113</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>96.590909090909093</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>-14</v>
       </c>
       <c r="B201" t="s">
+        <v>133</v>
+      </c>
+      <c r="C201" t="s">
         <v>113</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>96.590909090909093</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>-13</v>
       </c>
       <c r="B202" t="s">
+        <v>133</v>
+      </c>
+      <c r="C202" t="s">
         <v>113</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>96.590909090909093</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>-12</v>
       </c>
       <c r="B203" t="s">
+        <v>133</v>
+      </c>
+      <c r="C203" t="s">
         <v>113</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>96.590909090909093</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>-11</v>
       </c>
       <c r="B204" t="s">
+        <v>133</v>
+      </c>
+      <c r="C204" t="s">
         <v>113</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>96.590909090909093</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <f t="shared" si="3"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>-10</v>
       </c>
       <c r="B205" t="s">
+        <v>133</v>
+      </c>
+      <c r="C205" t="s">
         <v>113</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>93.181818181818173</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>-9</v>
       </c>
       <c r="B206" t="s">
+        <v>133</v>
+      </c>
+      <c r="C206" t="s">
         <v>113</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>93.181818181818173</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>-8</v>
       </c>
       <c r="B207" t="s">
+        <v>133</v>
+      </c>
+      <c r="C207" t="s">
         <v>113</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>93.181818181818173</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>-7</v>
       </c>
       <c r="B208" t="s">
+        <v>133</v>
+      </c>
+      <c r="C208" t="s">
         <v>113</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>93.181818181818173</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>-6</v>
       </c>
       <c r="B209" t="s">
+        <v>133</v>
+      </c>
+      <c r="C209" t="s">
         <v>113</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>93.181818181818173</v>
       </c>
-      <c r="D209">
+      <c r="E209">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>-5</v>
       </c>
       <c r="B210" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" t="s">
         <v>113</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>93.181818181818173</v>
       </c>
-      <c r="D210">
+      <c r="E210">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>-4</v>
       </c>
       <c r="B211" t="s">
+        <v>133</v>
+      </c>
+      <c r="C211" t="s">
         <v>113</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>93.181818181818173</v>
       </c>
-      <c r="D211">
+      <c r="E211">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>-3</v>
       </c>
       <c r="B212" t="s">
+        <v>133</v>
+      </c>
+      <c r="C212" t="s">
         <v>113</v>
       </c>
-      <c r="C212">
+      <c r="D212">
         <v>93.181818181818173</v>
       </c>
-      <c r="D212">
+      <c r="E212">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>-2</v>
       </c>
       <c r="B213" t="s">
+        <v>133</v>
+      </c>
+      <c r="C213" t="s">
         <v>113</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>93.181818181818173</v>
       </c>
-      <c r="D213">
+      <c r="E213">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>-1</v>
       </c>
       <c r="B214" t="s">
+        <v>133</v>
+      </c>
+      <c r="C214" t="s">
         <v>113</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>93.181818181818173</v>
       </c>
-      <c r="D214">
+      <c r="E214">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>0</v>
       </c>
       <c r="B215" t="s">
+        <v>133</v>
+      </c>
+      <c r="C215" t="s">
         <v>113</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>93.181818181818173</v>
       </c>
-      <c r="D215">
+      <c r="E215">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>1</v>
       </c>
       <c r="B216" t="s">
+        <v>133</v>
+      </c>
+      <c r="C216" t="s">
         <v>113</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>93.181818181818173</v>
       </c>
-      <c r="D216">
+      <c r="E216">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>2</v>
       </c>
       <c r="B217" t="s">
+        <v>133</v>
+      </c>
+      <c r="C217" t="s">
         <v>113</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>93.181818181818173</v>
       </c>
-      <c r="D217">
+      <c r="E217">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>3</v>
       </c>
       <c r="B218" t="s">
+        <v>133</v>
+      </c>
+      <c r="C218" t="s">
         <v>113</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>93.181818181818173</v>
       </c>
-      <c r="D218">
+      <c r="E218">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>4</v>
       </c>
       <c r="B219" t="s">
+        <v>133</v>
+      </c>
+      <c r="C219" t="s">
         <v>113</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>93.181818181818173</v>
       </c>
-      <c r="D219">
+      <c r="E219">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>5</v>
       </c>
       <c r="B220" t="s">
+        <v>133</v>
+      </c>
+      <c r="C220" t="s">
         <v>113</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>93.181818181818173</v>
       </c>
-      <c r="D220">
+      <c r="E220">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>6</v>
       </c>
       <c r="B221" t="s">
+        <v>133</v>
+      </c>
+      <c r="C221" t="s">
         <v>113</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>93.181818181818173</v>
       </c>
-      <c r="D221">
+      <c r="E221">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>7</v>
       </c>
       <c r="B222" t="s">
+        <v>133</v>
+      </c>
+      <c r="C222" t="s">
         <v>113</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>93.181818181818173</v>
       </c>
-      <c r="D222">
+      <c r="E222">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>8</v>
       </c>
       <c r="B223" t="s">
+        <v>133</v>
+      </c>
+      <c r="C223" t="s">
         <v>113</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>93.181818181818173</v>
       </c>
-      <c r="D223">
+      <c r="E223">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>9</v>
       </c>
       <c r="B224" t="s">
+        <v>133</v>
+      </c>
+      <c r="C224" t="s">
         <v>113</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>93.181818181818173</v>
       </c>
-      <c r="D224">
+      <c r="E224">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>10</v>
       </c>
       <c r="B225" t="s">
+        <v>133</v>
+      </c>
+      <c r="C225" t="s">
         <v>113</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>93.181818181818173</v>
       </c>
-      <c r="D225">
+      <c r="E225">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>11</v>
       </c>
       <c r="B226" t="s">
+        <v>133</v>
+      </c>
+      <c r="C226" t="s">
         <v>113</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>93.181818181818173</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>12</v>
       </c>
       <c r="B227" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227" t="s">
         <v>113</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>93.181818181818173</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>13</v>
       </c>
       <c r="B228" t="s">
+        <v>133</v>
+      </c>
+      <c r="C228" t="s">
         <v>113</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>93.181818181818173</v>
       </c>
-      <c r="D228">
+      <c r="E228">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>14</v>
       </c>
       <c r="B229" t="s">
+        <v>133</v>
+      </c>
+      <c r="C229" t="s">
         <v>113</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>93.181818181818173</v>
       </c>
-      <c r="D229">
+      <c r="E229">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>15</v>
       </c>
       <c r="B230" t="s">
+        <v>133</v>
+      </c>
+      <c r="C230" t="s">
         <v>113</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>93.181818181818173</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>16</v>
       </c>
       <c r="B231" t="s">
+        <v>133</v>
+      </c>
+      <c r="C231" t="s">
         <v>113</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>93.181818181818173</v>
       </c>
-      <c r="D231">
+      <c r="E231">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>17</v>
       </c>
       <c r="B232" t="s">
+        <v>133</v>
+      </c>
+      <c r="C232" t="s">
         <v>113</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>93.181818181818173</v>
       </c>
-      <c r="D232">
+      <c r="E232">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>18</v>
       </c>
       <c r="B233" t="s">
+        <v>133</v>
+      </c>
+      <c r="C233" t="s">
         <v>113</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>93.181818181818173</v>
       </c>
-      <c r="D233">
+      <c r="E233">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>19</v>
       </c>
       <c r="B234" t="s">
+        <v>133</v>
+      </c>
+      <c r="C234" t="s">
         <v>113</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>93.181818181818173</v>
       </c>
-      <c r="D234">
+      <c r="E234">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>20</v>
       </c>
       <c r="B235" t="s">
+        <v>133</v>
+      </c>
+      <c r="C235" t="s">
         <v>113</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>93.181818181818173</v>
       </c>
-      <c r="D235">
+      <c r="E235">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>21</v>
       </c>
       <c r="B236" t="s">
+        <v>133</v>
+      </c>
+      <c r="C236" t="s">
         <v>113</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>93.181818181818173</v>
       </c>
-      <c r="D236">
+      <c r="E236">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>22</v>
       </c>
       <c r="B237" t="s">
+        <v>133</v>
+      </c>
+      <c r="C237" t="s">
         <v>113</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>93.181818181818173</v>
       </c>
-      <c r="D237">
+      <c r="E237">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>23</v>
       </c>
       <c r="B238" t="s">
+        <v>133</v>
+      </c>
+      <c r="C238" t="s">
         <v>113</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>93.181818181818173</v>
       </c>
-      <c r="D238">
+      <c r="E238">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>24</v>
       </c>
       <c r="B239" t="s">
+        <v>133</v>
+      </c>
+      <c r="C239" t="s">
         <v>113</v>
       </c>
-      <c r="C239">
+      <c r="D239">
         <v>93.181818181818173</v>
       </c>
-      <c r="D239">
+      <c r="E239">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>25</v>
       </c>
       <c r="B240" t="s">
+        <v>133</v>
+      </c>
+      <c r="C240" t="s">
         <v>113</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>93.181818181818173</v>
       </c>
-      <c r="D240">
+      <c r="E240">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>26</v>
       </c>
       <c r="B241" t="s">
+        <v>133</v>
+      </c>
+      <c r="C241" t="s">
         <v>113</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>93.181818181818173</v>
       </c>
-      <c r="D241">
+      <c r="E241">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>27</v>
       </c>
       <c r="B242" t="s">
+        <v>133</v>
+      </c>
+      <c r="C242" t="s">
         <v>113</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>93.181818181818173</v>
       </c>
-      <c r="D242">
+      <c r="E242">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>28</v>
       </c>
       <c r="B243" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243" t="s">
         <v>113</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>93.181818181818173</v>
       </c>
-      <c r="D243">
+      <c r="E243">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>29</v>
       </c>
       <c r="B244" t="s">
+        <v>133</v>
+      </c>
+      <c r="C244" t="s">
         <v>113</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>93.181818181818173</v>
       </c>
-      <c r="D244">
+      <c r="E244">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>30</v>
       </c>
       <c r="B245" t="s">
+        <v>133</v>
+      </c>
+      <c r="C245" t="s">
         <v>113</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>93.181818181818173</v>
       </c>
-      <c r="D245">
+      <c r="E245">
         <f t="shared" si="3"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>-30</v>
       </c>
       <c r="B246" t="s">
+        <v>133</v>
+      </c>
+      <c r="C246" t="s">
         <v>114</v>
       </c>
-      <c r="C246">
-        <v>100</v>
-      </c>
       <c r="D246">
+        <v>100</v>
+      </c>
+      <c r="E246">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>-29</v>
       </c>
       <c r="B247" t="s">
+        <v>133</v>
+      </c>
+      <c r="C247" t="s">
         <v>114</v>
       </c>
-      <c r="C247">
-        <v>100</v>
-      </c>
       <c r="D247">
+        <v>100</v>
+      </c>
+      <c r="E247">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>-28</v>
       </c>
       <c r="B248" t="s">
+        <v>133</v>
+      </c>
+      <c r="C248" t="s">
         <v>114</v>
       </c>
-      <c r="C248">
-        <v>100</v>
-      </c>
       <c r="D248">
+        <v>100</v>
+      </c>
+      <c r="E248">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>-27</v>
       </c>
       <c r="B249" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" t="s">
         <v>114</v>
       </c>
-      <c r="C249">
-        <v>100</v>
-      </c>
       <c r="D249">
+        <v>100</v>
+      </c>
+      <c r="E249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>-26</v>
       </c>
       <c r="B250" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" t="s">
         <v>114</v>
       </c>
-      <c r="C250">
-        <v>100</v>
-      </c>
       <c r="D250">
+        <v>100</v>
+      </c>
+      <c r="E250">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>-25</v>
       </c>
       <c r="B251" t="s">
+        <v>133</v>
+      </c>
+      <c r="C251" t="s">
         <v>114</v>
       </c>
-      <c r="C251">
-        <v>100</v>
-      </c>
       <c r="D251">
+        <v>100</v>
+      </c>
+      <c r="E251">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>-24</v>
       </c>
       <c r="B252" t="s">
+        <v>133</v>
+      </c>
+      <c r="C252" t="s">
         <v>114</v>
       </c>
-      <c r="C252">
-        <v>100</v>
-      </c>
       <c r="D252">
+        <v>100</v>
+      </c>
+      <c r="E252">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>-23</v>
       </c>
       <c r="B253" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253" t="s">
         <v>114</v>
       </c>
-      <c r="C253">
-        <v>100</v>
-      </c>
       <c r="D253">
+        <v>100</v>
+      </c>
+      <c r="E253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>-22</v>
       </c>
       <c r="B254" t="s">
+        <v>133</v>
+      </c>
+      <c r="C254" t="s">
         <v>114</v>
       </c>
-      <c r="C254">
-        <v>100</v>
-      </c>
       <c r="D254">
+        <v>100</v>
+      </c>
+      <c r="E254">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>-21</v>
       </c>
       <c r="B255" t="s">
+        <v>133</v>
+      </c>
+      <c r="C255" t="s">
         <v>114</v>
       </c>
-      <c r="C255">
-        <v>100</v>
-      </c>
       <c r="D255">
+        <v>100</v>
+      </c>
+      <c r="E255">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>-20</v>
       </c>
       <c r="B256" t="s">
+        <v>133</v>
+      </c>
+      <c r="C256" t="s">
         <v>114</v>
       </c>
-      <c r="C256">
+      <c r="D256">
         <v>97.727272727272734</v>
       </c>
-      <c r="D256">
+      <c r="E256">
         <f t="shared" si="3"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>-19</v>
       </c>
       <c r="B257" t="s">
+        <v>133</v>
+      </c>
+      <c r="C257" t="s">
         <v>114</v>
       </c>
-      <c r="C257">
+      <c r="D257">
         <v>97.727272727272734</v>
       </c>
-      <c r="D257">
+      <c r="E257">
         <f t="shared" si="3"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>-18</v>
       </c>
       <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="s">
         <v>114</v>
       </c>
-      <c r="C258">
+      <c r="D258">
         <v>97.727272727272734</v>
       </c>
-      <c r="D258">
+      <c r="E258">
         <f t="shared" si="3"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>-17</v>
       </c>
       <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="s">
         <v>114</v>
       </c>
-      <c r="C259">
+      <c r="D259">
         <v>97.727272727272734</v>
       </c>
-      <c r="D259">
-        <f t="shared" ref="D259:D322" si="4">100-C259</f>
+      <c r="E259">
+        <f t="shared" ref="E259:E322" si="4">100-D259</f>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>-16</v>
       </c>
       <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="s">
         <v>114</v>
       </c>
-      <c r="C260">
+      <c r="D260">
         <v>97.727272727272734</v>
       </c>
-      <c r="D260">
+      <c r="E260">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>-15</v>
       </c>
       <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="s">
         <v>114</v>
       </c>
-      <c r="C261">
+      <c r="D261">
         <v>97.727272727272734</v>
       </c>
-      <c r="D261">
+      <c r="E261">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>-14</v>
       </c>
       <c r="B262" t="s">
+        <v>133</v>
+      </c>
+      <c r="C262" t="s">
         <v>114</v>
       </c>
-      <c r="C262">
+      <c r="D262">
         <v>97.727272727272734</v>
       </c>
-      <c r="D262">
+      <c r="E262">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>-13</v>
       </c>
       <c r="B263" t="s">
+        <v>133</v>
+      </c>
+      <c r="C263" t="s">
         <v>114</v>
       </c>
-      <c r="C263">
+      <c r="D263">
         <v>97.727272727272734</v>
       </c>
-      <c r="D263">
+      <c r="E263">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>-12</v>
       </c>
       <c r="B264" t="s">
+        <v>133</v>
+      </c>
+      <c r="C264" t="s">
         <v>114</v>
       </c>
-      <c r="C264">
+      <c r="D264">
         <v>97.727272727272734</v>
       </c>
-      <c r="D264">
+      <c r="E264">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>-11</v>
       </c>
       <c r="B265" t="s">
+        <v>133</v>
+      </c>
+      <c r="C265" t="s">
         <v>114</v>
       </c>
-      <c r="C265">
+      <c r="D265">
         <v>97.727272727272734</v>
       </c>
-      <c r="D265">
+      <c r="E265">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>-10</v>
       </c>
       <c r="B266" t="s">
+        <v>133</v>
+      </c>
+      <c r="C266" t="s">
         <v>114</v>
       </c>
-      <c r="C266">
+      <c r="D266">
         <v>97.727272727272734</v>
       </c>
-      <c r="D266">
+      <c r="E266">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>-9</v>
       </c>
       <c r="B267" t="s">
+        <v>133</v>
+      </c>
+      <c r="C267" t="s">
         <v>114</v>
       </c>
-      <c r="C267">
+      <c r="D267">
         <v>97.727272727272734</v>
       </c>
-      <c r="D267">
+      <c r="E267">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>-8</v>
       </c>
       <c r="B268" t="s">
+        <v>133</v>
+      </c>
+      <c r="C268" t="s">
         <v>114</v>
       </c>
-      <c r="C268">
+      <c r="D268">
         <v>97.727272727272734</v>
       </c>
-      <c r="D268">
+      <c r="E268">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>-7</v>
       </c>
       <c r="B269" t="s">
+        <v>133</v>
+      </c>
+      <c r="C269" t="s">
         <v>114</v>
       </c>
-      <c r="C269">
+      <c r="D269">
         <v>97.727272727272734</v>
       </c>
-      <c r="D269">
+      <c r="E269">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>-6</v>
       </c>
       <c r="B270" t="s">
+        <v>133</v>
+      </c>
+      <c r="C270" t="s">
         <v>114</v>
       </c>
-      <c r="C270">
+      <c r="D270">
         <v>97.727272727272734</v>
       </c>
-      <c r="D270">
+      <c r="E270">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>-5</v>
       </c>
       <c r="B271" t="s">
+        <v>133</v>
+      </c>
+      <c r="C271" t="s">
         <v>114</v>
       </c>
-      <c r="C271">
+      <c r="D271">
         <v>97.727272727272734</v>
       </c>
-      <c r="D271">
+      <c r="E271">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>-4</v>
       </c>
       <c r="B272" t="s">
+        <v>133</v>
+      </c>
+      <c r="C272" t="s">
         <v>114</v>
       </c>
-      <c r="C272">
+      <c r="D272">
         <v>97.727272727272734</v>
       </c>
-      <c r="D272">
+      <c r="E272">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>-3</v>
       </c>
       <c r="B273" t="s">
+        <v>133</v>
+      </c>
+      <c r="C273" t="s">
         <v>114</v>
       </c>
-      <c r="C273">
+      <c r="D273">
         <v>97.727272727272734</v>
       </c>
-      <c r="D273">
+      <c r="E273">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>-2</v>
       </c>
       <c r="B274" t="s">
+        <v>133</v>
+      </c>
+      <c r="C274" t="s">
         <v>114</v>
       </c>
-      <c r="C274">
+      <c r="D274">
         <v>97.727272727272734</v>
       </c>
-      <c r="D274">
+      <c r="E274">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>-1</v>
       </c>
       <c r="B275" t="s">
+        <v>133</v>
+      </c>
+      <c r="C275" t="s">
         <v>114</v>
       </c>
-      <c r="C275">
+      <c r="D275">
         <v>97.727272727272734</v>
       </c>
-      <c r="D275">
+      <c r="E275">
         <f t="shared" si="4"/>
         <v>2.2727272727272663</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>0</v>
       </c>
       <c r="B276" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" t="s">
         <v>114</v>
       </c>
-      <c r="C276">
+      <c r="D276">
         <v>96.590909090909093</v>
       </c>
-      <c r="D276">
+      <c r="E276">
         <f t="shared" si="4"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>1</v>
       </c>
       <c r="B277" t="s">
+        <v>133</v>
+      </c>
+      <c r="C277" t="s">
         <v>114</v>
       </c>
-      <c r="C277">
+      <c r="D277">
         <v>96.590909090909093</v>
       </c>
-      <c r="D277">
+      <c r="E277">
         <f t="shared" si="4"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>2</v>
       </c>
       <c r="B278" t="s">
+        <v>133</v>
+      </c>
+      <c r="C278" t="s">
         <v>114</v>
       </c>
-      <c r="C278">
+      <c r="D278">
         <v>95.454545454545453</v>
       </c>
-      <c r="D278">
+      <c r="E278">
         <f t="shared" si="4"/>
         <v>4.5454545454545467</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>3</v>
       </c>
       <c r="B279" t="s">
+        <v>133</v>
+      </c>
+      <c r="C279" t="s">
         <v>114</v>
       </c>
-      <c r="C279">
+      <c r="D279">
         <v>93.181818181818173</v>
       </c>
-      <c r="D279">
+      <c r="E279">
         <f t="shared" si="4"/>
         <v>6.8181818181818272</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>4</v>
       </c>
       <c r="B280" t="s">
+        <v>133</v>
+      </c>
+      <c r="C280" t="s">
         <v>114</v>
       </c>
-      <c r="C280">
+      <c r="D280">
         <v>92.045454545454547</v>
       </c>
-      <c r="D280">
+      <c r="E280">
         <f t="shared" si="4"/>
         <v>7.9545454545454533</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>5</v>
       </c>
       <c r="B281" t="s">
+        <v>133</v>
+      </c>
+      <c r="C281" t="s">
         <v>114</v>
       </c>
-      <c r="C281">
+      <c r="D281">
         <v>90.909090909090907</v>
       </c>
-      <c r="D281">
+      <c r="E281">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>6</v>
       </c>
       <c r="B282" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282" t="s">
         <v>114</v>
       </c>
-      <c r="C282">
+      <c r="D282">
         <v>90.909090909090907</v>
       </c>
-      <c r="D282">
+      <c r="E282">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>7</v>
       </c>
       <c r="B283" t="s">
+        <v>133</v>
+      </c>
+      <c r="C283" t="s">
         <v>114</v>
       </c>
-      <c r="C283">
+      <c r="D283">
         <v>90.909090909090907</v>
       </c>
-      <c r="D283">
+      <c r="E283">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>8</v>
       </c>
       <c r="B284" t="s">
+        <v>133</v>
+      </c>
+      <c r="C284" t="s">
         <v>114</v>
       </c>
-      <c r="C284">
+      <c r="D284">
         <v>90.909090909090907</v>
       </c>
-      <c r="D284">
+      <c r="E284">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>9</v>
       </c>
       <c r="B285" t="s">
+        <v>133</v>
+      </c>
+      <c r="C285" t="s">
         <v>114</v>
       </c>
-      <c r="C285">
+      <c r="D285">
         <v>90.909090909090907</v>
       </c>
-      <c r="D285">
+      <c r="E285">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>10</v>
       </c>
       <c r="B286" t="s">
+        <v>133</v>
+      </c>
+      <c r="C286" t="s">
         <v>114</v>
       </c>
-      <c r="C286">
+      <c r="D286">
         <v>90.909090909090907</v>
       </c>
-      <c r="D286">
+      <c r="E286">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>11</v>
       </c>
       <c r="B287" t="s">
+        <v>133</v>
+      </c>
+      <c r="C287" t="s">
         <v>114</v>
       </c>
-      <c r="C287">
+      <c r="D287">
         <v>90.909090909090907</v>
       </c>
-      <c r="D287">
+      <c r="E287">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>12</v>
       </c>
       <c r="B288" t="s">
+        <v>133</v>
+      </c>
+      <c r="C288" t="s">
         <v>114</v>
       </c>
-      <c r="C288">
+      <c r="D288">
         <v>90.909090909090907</v>
       </c>
-      <c r="D288">
+      <c r="E288">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>13</v>
       </c>
       <c r="B289" t="s">
+        <v>133</v>
+      </c>
+      <c r="C289" t="s">
         <v>114</v>
       </c>
-      <c r="C289">
+      <c r="D289">
         <v>90.909090909090907</v>
       </c>
-      <c r="D289">
+      <c r="E289">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>14</v>
       </c>
       <c r="B290" t="s">
+        <v>133</v>
+      </c>
+      <c r="C290" t="s">
         <v>114</v>
       </c>
-      <c r="C290">
+      <c r="D290">
         <v>90.909090909090907</v>
       </c>
-      <c r="D290">
+      <c r="E290">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>15</v>
       </c>
       <c r="B291" t="s">
+        <v>133</v>
+      </c>
+      <c r="C291" t="s">
         <v>114</v>
       </c>
-      <c r="C291">
+      <c r="D291">
         <v>90.909090909090907</v>
       </c>
-      <c r="D291">
+      <c r="E291">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>16</v>
       </c>
       <c r="B292" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292" t="s">
         <v>114</v>
       </c>
-      <c r="C292">
+      <c r="D292">
         <v>90.909090909090907</v>
       </c>
-      <c r="D292">
+      <c r="E292">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>17</v>
       </c>
       <c r="B293" t="s">
+        <v>133</v>
+      </c>
+      <c r="C293" t="s">
         <v>114</v>
       </c>
-      <c r="C293">
+      <c r="D293">
         <v>90.909090909090907</v>
       </c>
-      <c r="D293">
+      <c r="E293">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>18</v>
       </c>
       <c r="B294" t="s">
+        <v>133</v>
+      </c>
+      <c r="C294" t="s">
         <v>114</v>
       </c>
-      <c r="C294">
+      <c r="D294">
         <v>90.909090909090907</v>
       </c>
-      <c r="D294">
+      <c r="E294">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>19</v>
       </c>
       <c r="B295" t="s">
+        <v>133</v>
+      </c>
+      <c r="C295" t="s">
         <v>114</v>
       </c>
-      <c r="C295">
+      <c r="D295">
         <v>90.909090909090907</v>
       </c>
-      <c r="D295">
+      <c r="E295">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>20</v>
       </c>
       <c r="B296" t="s">
+        <v>133</v>
+      </c>
+      <c r="C296" t="s">
         <v>114</v>
       </c>
-      <c r="C296">
+      <c r="D296">
         <v>90.909090909090907</v>
       </c>
-      <c r="D296">
+      <c r="E296">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>21</v>
       </c>
       <c r="B297" t="s">
+        <v>133</v>
+      </c>
+      <c r="C297" t="s">
         <v>114</v>
       </c>
-      <c r="C297">
+      <c r="D297">
         <v>90.909090909090907</v>
       </c>
-      <c r="D297">
+      <c r="E297">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>22</v>
       </c>
       <c r="B298" t="s">
+        <v>133</v>
+      </c>
+      <c r="C298" t="s">
         <v>114</v>
       </c>
-      <c r="C298">
+      <c r="D298">
         <v>90.909090909090907</v>
       </c>
-      <c r="D298">
+      <c r="E298">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>23</v>
       </c>
       <c r="B299" t="s">
+        <v>133</v>
+      </c>
+      <c r="C299" t="s">
         <v>114</v>
       </c>
-      <c r="C299">
+      <c r="D299">
         <v>90.909090909090907</v>
       </c>
-      <c r="D299">
+      <c r="E299">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>24</v>
       </c>
       <c r="B300" t="s">
+        <v>133</v>
+      </c>
+      <c r="C300" t="s">
         <v>114</v>
       </c>
-      <c r="C300">
+      <c r="D300">
         <v>90.909090909090907</v>
       </c>
-      <c r="D300">
+      <c r="E300">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>25</v>
       </c>
       <c r="B301" t="s">
+        <v>133</v>
+      </c>
+      <c r="C301" t="s">
         <v>114</v>
       </c>
-      <c r="C301">
+      <c r="D301">
         <v>90.909090909090907</v>
       </c>
-      <c r="D301">
+      <c r="E301">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>26</v>
       </c>
       <c r="B302" t="s">
+        <v>133</v>
+      </c>
+      <c r="C302" t="s">
         <v>114</v>
       </c>
-      <c r="C302">
+      <c r="D302">
         <v>90.909090909090907</v>
       </c>
-      <c r="D302">
+      <c r="E302">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>27</v>
       </c>
       <c r="B303" t="s">
+        <v>133</v>
+      </c>
+      <c r="C303" t="s">
         <v>114</v>
       </c>
-      <c r="C303">
+      <c r="D303">
         <v>90.909090909090907</v>
       </c>
-      <c r="D303">
+      <c r="E303">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>28</v>
       </c>
       <c r="B304" t="s">
+        <v>133</v>
+      </c>
+      <c r="C304" t="s">
         <v>114</v>
       </c>
-      <c r="C304">
+      <c r="D304">
         <v>90.909090909090907</v>
       </c>
-      <c r="D304">
+      <c r="E304">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>29</v>
       </c>
       <c r="B305" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305" t="s">
         <v>114</v>
       </c>
-      <c r="C305">
+      <c r="D305">
         <v>90.909090909090907</v>
       </c>
-      <c r="D305">
+      <c r="E305">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>30</v>
       </c>
       <c r="B306" t="s">
+        <v>133</v>
+      </c>
+      <c r="C306" t="s">
         <v>114</v>
       </c>
-      <c r="C306">
+      <c r="D306">
         <v>90.909090909090907</v>
       </c>
-      <c r="D306">
+      <c r="E306">
         <f t="shared" si="4"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>-30</v>
       </c>
       <c r="B307" t="s">
+        <v>133</v>
+      </c>
+      <c r="C307" t="s">
         <v>111</v>
       </c>
-      <c r="C307">
-        <v>100</v>
-      </c>
       <c r="D307">
+        <v>100</v>
+      </c>
+      <c r="E307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>-29</v>
       </c>
       <c r="B308" t="s">
+        <v>133</v>
+      </c>
+      <c r="C308" t="s">
         <v>111</v>
       </c>
-      <c r="C308">
-        <v>100</v>
-      </c>
       <c r="D308">
+        <v>100</v>
+      </c>
+      <c r="E308">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>-28</v>
       </c>
       <c r="B309" t="s">
+        <v>133</v>
+      </c>
+      <c r="C309" t="s">
         <v>111</v>
       </c>
-      <c r="C309">
-        <v>100</v>
-      </c>
       <c r="D309">
+        <v>100</v>
+      </c>
+      <c r="E309">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>-27</v>
       </c>
       <c r="B310" t="s">
+        <v>133</v>
+      </c>
+      <c r="C310" t="s">
         <v>111</v>
       </c>
-      <c r="C310">
-        <v>100</v>
-      </c>
       <c r="D310">
+        <v>100</v>
+      </c>
+      <c r="E310">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>-26</v>
       </c>
       <c r="B311" t="s">
+        <v>133</v>
+      </c>
+      <c r="C311" t="s">
         <v>111</v>
       </c>
-      <c r="C311">
-        <v>100</v>
-      </c>
       <c r="D311">
+        <v>100</v>
+      </c>
+      <c r="E311">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>-25</v>
       </c>
       <c r="B312" t="s">
+        <v>133</v>
+      </c>
+      <c r="C312" t="s">
         <v>111</v>
       </c>
-      <c r="C312">
-        <v>100</v>
-      </c>
       <c r="D312">
+        <v>100</v>
+      </c>
+      <c r="E312">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>-24</v>
       </c>
       <c r="B313" t="s">
+        <v>133</v>
+      </c>
+      <c r="C313" t="s">
         <v>111</v>
       </c>
-      <c r="C313">
-        <v>100</v>
-      </c>
       <c r="D313">
+        <v>100</v>
+      </c>
+      <c r="E313">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>-23</v>
       </c>
       <c r="B314" t="s">
+        <v>133</v>
+      </c>
+      <c r="C314" t="s">
         <v>111</v>
       </c>
-      <c r="C314">
-        <v>100</v>
-      </c>
       <c r="D314">
+        <v>100</v>
+      </c>
+      <c r="E314">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>-22</v>
       </c>
       <c r="B315" t="s">
+        <v>133</v>
+      </c>
+      <c r="C315" t="s">
         <v>111</v>
       </c>
-      <c r="C315">
-        <v>100</v>
-      </c>
       <c r="D315">
+        <v>100</v>
+      </c>
+      <c r="E315">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>-21</v>
       </c>
       <c r="B316" t="s">
+        <v>133</v>
+      </c>
+      <c r="C316" t="s">
         <v>111</v>
       </c>
-      <c r="C316">
-        <v>100</v>
-      </c>
       <c r="D316">
+        <v>100</v>
+      </c>
+      <c r="E316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>-20</v>
       </c>
       <c r="B317" t="s">
+        <v>133</v>
+      </c>
+      <c r="C317" t="s">
         <v>111</v>
       </c>
-      <c r="C317">
-        <v>100</v>
-      </c>
       <c r="D317">
+        <v>100</v>
+      </c>
+      <c r="E317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>-19</v>
       </c>
       <c r="B318" t="s">
+        <v>133</v>
+      </c>
+      <c r="C318" t="s">
         <v>111</v>
       </c>
-      <c r="C318">
-        <v>100</v>
-      </c>
       <c r="D318">
+        <v>100</v>
+      </c>
+      <c r="E318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>-18</v>
       </c>
       <c r="B319" t="s">
+        <v>133</v>
+      </c>
+      <c r="C319" t="s">
         <v>111</v>
       </c>
-      <c r="C319">
-        <v>100</v>
-      </c>
       <c r="D319">
+        <v>100</v>
+      </c>
+      <c r="E319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>-17</v>
       </c>
       <c r="B320" t="s">
+        <v>133</v>
+      </c>
+      <c r="C320" t="s">
         <v>111</v>
       </c>
-      <c r="C320">
-        <v>100</v>
-      </c>
       <c r="D320">
+        <v>100</v>
+      </c>
+      <c r="E320">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>-16</v>
       </c>
       <c r="B321" t="s">
+        <v>133</v>
+      </c>
+      <c r="C321" t="s">
         <v>111</v>
       </c>
-      <c r="C321">
-        <v>100</v>
-      </c>
       <c r="D321">
+        <v>100</v>
+      </c>
+      <c r="E321">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>-15</v>
       </c>
       <c r="B322" t="s">
+        <v>133</v>
+      </c>
+      <c r="C322" t="s">
         <v>111</v>
       </c>
-      <c r="C322">
-        <v>100</v>
-      </c>
       <c r="D322">
+        <v>100</v>
+      </c>
+      <c r="E322">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>-14</v>
       </c>
       <c r="B323" t="s">
+        <v>133</v>
+      </c>
+      <c r="C323" t="s">
         <v>111</v>
       </c>
-      <c r="C323">
-        <v>100</v>
-      </c>
       <c r="D323">
-        <f t="shared" ref="D323:D367" si="5">100-C323</f>
+        <v>100</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ref="E323:E367" si="5">100-D323</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>-13</v>
       </c>
       <c r="B324" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" t="s">
         <v>111</v>
       </c>
-      <c r="C324">
-        <v>100</v>
-      </c>
       <c r="D324">
+        <v>100</v>
+      </c>
+      <c r="E324">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>-12</v>
       </c>
       <c r="B325" t="s">
+        <v>133</v>
+      </c>
+      <c r="C325" t="s">
         <v>111</v>
       </c>
-      <c r="C325">
-        <v>100</v>
-      </c>
       <c r="D325">
+        <v>100</v>
+      </c>
+      <c r="E325">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>-11</v>
       </c>
       <c r="B326" t="s">
+        <v>133</v>
+      </c>
+      <c r="C326" t="s">
         <v>111</v>
       </c>
-      <c r="C326">
-        <v>100</v>
-      </c>
       <c r="D326">
+        <v>100</v>
+      </c>
+      <c r="E326">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>-10</v>
       </c>
       <c r="B327" t="s">
+        <v>133</v>
+      </c>
+      <c r="C327" t="s">
         <v>111</v>
       </c>
-      <c r="C327">
-        <v>100</v>
-      </c>
       <c r="D327">
+        <v>100</v>
+      </c>
+      <c r="E327">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>-9</v>
       </c>
       <c r="B328" t="s">
+        <v>133</v>
+      </c>
+      <c r="C328" t="s">
         <v>111</v>
       </c>
-      <c r="C328">
-        <v>100</v>
-      </c>
       <c r="D328">
+        <v>100</v>
+      </c>
+      <c r="E328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>-8</v>
       </c>
       <c r="B329" t="s">
+        <v>133</v>
+      </c>
+      <c r="C329" t="s">
         <v>111</v>
       </c>
-      <c r="C329">
-        <v>100</v>
-      </c>
       <c r="D329">
+        <v>100</v>
+      </c>
+      <c r="E329">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>-7</v>
       </c>
       <c r="B330" t="s">
+        <v>133</v>
+      </c>
+      <c r="C330" t="s">
         <v>111</v>
       </c>
-      <c r="C330">
-        <v>100</v>
-      </c>
       <c r="D330">
+        <v>100</v>
+      </c>
+      <c r="E330">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>-6</v>
       </c>
       <c r="B331" t="s">
+        <v>133</v>
+      </c>
+      <c r="C331" t="s">
         <v>111</v>
       </c>
-      <c r="C331">
-        <v>100</v>
-      </c>
       <c r="D331">
+        <v>100</v>
+      </c>
+      <c r="E331">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>-5</v>
       </c>
       <c r="B332" t="s">
+        <v>133</v>
+      </c>
+      <c r="C332" t="s">
         <v>111</v>
       </c>
-      <c r="C332">
-        <v>100</v>
-      </c>
       <c r="D332">
+        <v>100</v>
+      </c>
+      <c r="E332">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>-4</v>
       </c>
       <c r="B333" t="s">
+        <v>133</v>
+      </c>
+      <c r="C333" t="s">
         <v>111</v>
       </c>
-      <c r="C333">
-        <v>100</v>
-      </c>
       <c r="D333">
+        <v>100</v>
+      </c>
+      <c r="E333">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>-3</v>
       </c>
       <c r="B334" t="s">
+        <v>133</v>
+      </c>
+      <c r="C334" t="s">
         <v>111</v>
       </c>
-      <c r="C334">
+      <c r="D334">
         <v>96.590909090909093</v>
       </c>
-      <c r="D334">
+      <c r="E334">
         <f t="shared" si="5"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>-2</v>
       </c>
       <c r="B335" t="s">
+        <v>133</v>
+      </c>
+      <c r="C335" t="s">
         <v>111</v>
       </c>
-      <c r="C335">
+      <c r="D335">
         <v>96.590909090909093</v>
       </c>
-      <c r="D335">
+      <c r="E335">
         <f t="shared" si="5"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>-1</v>
       </c>
       <c r="B336" t="s">
+        <v>133</v>
+      </c>
+      <c r="C336" t="s">
         <v>111</v>
       </c>
-      <c r="C336">
+      <c r="D336">
         <v>96.590909090909093</v>
       </c>
-      <c r="D336">
+      <c r="E336">
         <f t="shared" si="5"/>
         <v>3.4090909090909065</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>0</v>
       </c>
       <c r="B337" t="s">
+        <v>133</v>
+      </c>
+      <c r="C337" t="s">
         <v>111</v>
       </c>
-      <c r="C337">
+      <c r="D337">
         <v>90.909090909090907</v>
       </c>
-      <c r="D337">
+      <c r="E337">
         <f t="shared" si="5"/>
         <v>9.0909090909090935</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>1</v>
       </c>
       <c r="B338" t="s">
+        <v>133</v>
+      </c>
+      <c r="C338" t="s">
         <v>111</v>
       </c>
-      <c r="C338">
+      <c r="D338">
         <v>89.772727272727266</v>
       </c>
-      <c r="D338">
+      <c r="E338">
         <f t="shared" si="5"/>
         <v>10.227272727272734</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>2</v>
       </c>
       <c r="B339" t="s">
+        <v>133</v>
+      </c>
+      <c r="C339" t="s">
         <v>111</v>
       </c>
-      <c r="C339">
+      <c r="D339">
         <v>89.772727272727266</v>
       </c>
-      <c r="D339">
+      <c r="E339">
         <f t="shared" si="5"/>
         <v>10.227272727272734</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>3</v>
       </c>
       <c r="B340" t="s">
+        <v>133</v>
+      </c>
+      <c r="C340" t="s">
         <v>111</v>
       </c>
-      <c r="C340">
+      <c r="D340">
         <v>72.727272727272734</v>
       </c>
-      <c r="D340">
+      <c r="E340">
         <f t="shared" si="5"/>
         <v>27.272727272727266</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>4</v>
       </c>
       <c r="B341" t="s">
+        <v>133</v>
+      </c>
+      <c r="C341" t="s">
         <v>111</v>
       </c>
-      <c r="C341">
+      <c r="D341">
         <v>72.727272727272734</v>
       </c>
-      <c r="D341">
+      <c r="E341">
         <f t="shared" si="5"/>
         <v>27.272727272727266</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>5</v>
       </c>
       <c r="B342" t="s">
+        <v>133</v>
+      </c>
+      <c r="C342" t="s">
         <v>111</v>
       </c>
-      <c r="C342">
+      <c r="D342">
         <v>72.727272727272734</v>
       </c>
-      <c r="D342">
+      <c r="E342">
         <f t="shared" si="5"/>
         <v>27.272727272727266</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>6</v>
       </c>
       <c r="B343" t="s">
+        <v>133</v>
+      </c>
+      <c r="C343" t="s">
         <v>111</v>
       </c>
-      <c r="C343">
+      <c r="D343">
         <v>72.727272727272734</v>
       </c>
-      <c r="D343">
+      <c r="E343">
         <f t="shared" si="5"/>
         <v>27.272727272727266</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>7</v>
       </c>
       <c r="B344" t="s">
+        <v>133</v>
+      </c>
+      <c r="C344" t="s">
         <v>111</v>
       </c>
-      <c r="C344">
+      <c r="D344">
         <v>64.772727272727266</v>
       </c>
-      <c r="D344">
+      <c r="E344">
         <f t="shared" si="5"/>
         <v>35.227272727272734</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>8</v>
       </c>
       <c r="B345" t="s">
+        <v>133</v>
+      </c>
+      <c r="C345" t="s">
         <v>111</v>
       </c>
-      <c r="C345">
+      <c r="D345">
         <v>64.772727272727266</v>
       </c>
-      <c r="D345">
+      <c r="E345">
         <f t="shared" si="5"/>
         <v>35.227272727272734</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>9</v>
       </c>
       <c r="B346" t="s">
+        <v>133</v>
+      </c>
+      <c r="C346" t="s">
         <v>111</v>
       </c>
-      <c r="C346">
+      <c r="D346">
         <v>64.772727272727266</v>
       </c>
-      <c r="D346">
+      <c r="E346">
         <f t="shared" si="5"/>
         <v>35.227272727272734</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>10</v>
       </c>
       <c r="B347" t="s">
+        <v>133</v>
+      </c>
+      <c r="C347" t="s">
         <v>111</v>
       </c>
-      <c r="C347">
+      <c r="D347">
         <v>64.772727272727266</v>
       </c>
-      <c r="D347">
+      <c r="E347">
         <f t="shared" si="5"/>
         <v>35.227272727272734</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>11</v>
       </c>
       <c r="B348" t="s">
+        <v>133</v>
+      </c>
+      <c r="C348" t="s">
         <v>111</v>
       </c>
-      <c r="C348">
+      <c r="D348">
         <v>63.636363636363633</v>
       </c>
-      <c r="D348">
+      <c r="E348">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>12</v>
       </c>
       <c r="B349" t="s">
+        <v>133</v>
+      </c>
+      <c r="C349" t="s">
         <v>111</v>
       </c>
-      <c r="C349">
+      <c r="D349">
         <v>63.636363636363633</v>
       </c>
-      <c r="D349">
+      <c r="E349">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>13</v>
       </c>
       <c r="B350" t="s">
+        <v>133</v>
+      </c>
+      <c r="C350" t="s">
         <v>111</v>
       </c>
-      <c r="C350">
+      <c r="D350">
         <v>63.636363636363633</v>
       </c>
-      <c r="D350">
+      <c r="E350">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>14</v>
       </c>
       <c r="B351" t="s">
+        <v>133</v>
+      </c>
+      <c r="C351" t="s">
         <v>111</v>
       </c>
-      <c r="C351">
+      <c r="D351">
         <v>63.636363636363633</v>
       </c>
-      <c r="D351">
+      <c r="E351">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>15</v>
       </c>
       <c r="B352" t="s">
+        <v>133</v>
+      </c>
+      <c r="C352" t="s">
         <v>111</v>
       </c>
-      <c r="C352">
+      <c r="D352">
         <v>63.636363636363633</v>
       </c>
-      <c r="D352">
+      <c r="E352">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>16</v>
       </c>
       <c r="B353" t="s">
+        <v>133</v>
+      </c>
+      <c r="C353" t="s">
         <v>111</v>
       </c>
-      <c r="C353">
+      <c r="D353">
         <v>63.636363636363633</v>
       </c>
-      <c r="D353">
+      <c r="E353">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>17</v>
       </c>
       <c r="B354" t="s">
+        <v>133</v>
+      </c>
+      <c r="C354" t="s">
         <v>111</v>
       </c>
-      <c r="C354">
+      <c r="D354">
         <v>63.636363636363633</v>
       </c>
-      <c r="D354">
+      <c r="E354">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>18</v>
       </c>
       <c r="B355" t="s">
+        <v>133</v>
+      </c>
+      <c r="C355" t="s">
         <v>111</v>
       </c>
-      <c r="C355">
+      <c r="D355">
         <v>63.636363636363633</v>
       </c>
-      <c r="D355">
+      <c r="E355">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>19</v>
       </c>
       <c r="B356" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" t="s">
         <v>111</v>
       </c>
-      <c r="C356">
+      <c r="D356">
         <v>63.636363636363633</v>
       </c>
-      <c r="D356">
+      <c r="E356">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>20</v>
       </c>
       <c r="B357" t="s">
+        <v>133</v>
+      </c>
+      <c r="C357" t="s">
         <v>111</v>
       </c>
-      <c r="C357">
+      <c r="D357">
         <v>63.636363636363633</v>
       </c>
-      <c r="D357">
+      <c r="E357">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>21</v>
       </c>
       <c r="B358" t="s">
+        <v>133</v>
+      </c>
+      <c r="C358" t="s">
         <v>111</v>
       </c>
-      <c r="C358">
+      <c r="D358">
         <v>63.636363636363633</v>
       </c>
-      <c r="D358">
+      <c r="E358">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>22</v>
       </c>
       <c r="B359" t="s">
+        <v>133</v>
+      </c>
+      <c r="C359" t="s">
         <v>111</v>
       </c>
-      <c r="C359">
+      <c r="D359">
         <v>63.636363636363633</v>
       </c>
-      <c r="D359">
+      <c r="E359">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>23</v>
       </c>
       <c r="B360" t="s">
+        <v>133</v>
+      </c>
+      <c r="C360" t="s">
         <v>111</v>
       </c>
-      <c r="C360">
+      <c r="D360">
         <v>63.636363636363633</v>
       </c>
-      <c r="D360">
+      <c r="E360">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>24</v>
       </c>
       <c r="B361" t="s">
+        <v>133</v>
+      </c>
+      <c r="C361" t="s">
         <v>111</v>
       </c>
-      <c r="C361">
+      <c r="D361">
         <v>63.636363636363633</v>
       </c>
-      <c r="D361">
+      <c r="E361">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>25</v>
       </c>
       <c r="B362" t="s">
+        <v>133</v>
+      </c>
+      <c r="C362" t="s">
         <v>111</v>
       </c>
-      <c r="C362">
+      <c r="D362">
         <v>63.636363636363633</v>
       </c>
-      <c r="D362">
+      <c r="E362">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>26</v>
       </c>
       <c r="B363" t="s">
+        <v>133</v>
+      </c>
+      <c r="C363" t="s">
         <v>111</v>
       </c>
-      <c r="C363">
+      <c r="D363">
         <v>63.636363636363633</v>
       </c>
-      <c r="D363">
+      <c r="E363">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>27</v>
       </c>
       <c r="B364" t="s">
+        <v>133</v>
+      </c>
+      <c r="C364" t="s">
         <v>111</v>
       </c>
-      <c r="C364">
+      <c r="D364">
         <v>63.636363636363633</v>
       </c>
-      <c r="D364">
+      <c r="E364">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>28</v>
       </c>
       <c r="B365" t="s">
+        <v>133</v>
+      </c>
+      <c r="C365" t="s">
         <v>111</v>
       </c>
-      <c r="C365">
+      <c r="D365">
         <v>63.636363636363633</v>
       </c>
-      <c r="D365">
+      <c r="E365">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>29</v>
       </c>
       <c r="B366" t="s">
+        <v>133</v>
+      </c>
+      <c r="C366" t="s">
         <v>111</v>
       </c>
-      <c r="C366">
+      <c r="D366">
         <v>63.636363636363633</v>
       </c>
-      <c r="D366">
+      <c r="E366">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>30</v>
       </c>
       <c r="B367" t="s">
+        <v>133</v>
+      </c>
+      <c r="C367" t="s">
         <v>111</v>
       </c>
-      <c r="C367">
+      <c r="D367">
         <v>63.636363636363633</v>
       </c>
-      <c r="D367">
+      <c r="E367">
         <f t="shared" si="5"/>
         <v>36.363636363636367</v>
       </c>
@@ -17121,54 +18267,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691AC753-3960-472A-92BF-271FCA3A3FB3}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>